--- a/backend/list.xlsx
+++ b/backend/list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bug-tester-ai\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bugzilla-F\bugzilla-f\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1325BEA8-7E4C-414D-8F10-9CDC0298B3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16404BD-2348-484A-B8B8-71F7F331DD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB921D1E-1C07-40B4-80FB-B8AEB8BD0164}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -79,16 +78,22 @@
     <t>2100030129cse@gmail.com</t>
   </si>
   <si>
-    <t>Ai-Ml developer</t>
-  </si>
-  <si>
     <t>vena</t>
   </si>
   <si>
     <t>gonavena123@gmail.com</t>
   </si>
   <si>
-    <t>Tester</t>
+    <t>Devops Engineer</t>
+  </si>
+  <si>
+    <t>Cloud Engineer</t>
+  </si>
+  <si>
+    <t>harshisrinuuuuu06@gmail.com</t>
+  </si>
+  <si>
+    <t>API Integration</t>
   </si>
 </sst>
 </file>
@@ -451,13 +456,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D564BD-F349-455C-AD64-A46FC3736E74}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -489,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,18 +520,29 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -532,6 +552,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{52353629-9191-40A6-83F1-547E7B9E0A52}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{576D9D5B-E9E0-40EC-B937-432B0FBEDF88}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{26746AAD-F17C-4A60-9CB9-0F85FCE2B495}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{08801957-7D1F-4E65-8571-9A4FF8DF7B88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
